--- a/1.DOCUMENTACION/CODIGO/TablaServicios.xlsx
+++ b/1.DOCUMENTACION/CODIGO/TablaServicios.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Desktop\Pacto-de-Honor\1.DOCUMENTACION\CODIGO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="2016" yWindow="96" windowWidth="20112" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author>Juan Nicolas Rubiano Obando</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Fecha solicitud</t>
   </si>
@@ -84,12 +89,33 @@
   </si>
   <si>
     <t>No. Servicio</t>
+  </si>
+  <si>
+    <t>Juan Camilo Lancheros</t>
+  </si>
+  <si>
+    <t>Cristian Garzon</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>var desbloqueoAlfaNumerico=  {"id_jugador":{
+                 "id_personaje": "codigoAlfa",
+  "estado":"0" }
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio nos brindara el desbloueo del personaje personaje, cumpliendo si el codigo aun es valido por la fecha y si no esta desbloqueado el personaje. </t>
+  </si>
+  <si>
+    <t>id_jugador= sera el id de cada usuario en el jugo. Id_personaje= sera la informacion de el personaje que se desbloqueara. codigoAlfa = al codigo alfanumericos que se ha regalado.  Estado= Nos dira si esta desbloqueado o no este personaje.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,35 +404,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,6 +449,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +533,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +585,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,82 +780,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="34.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="13" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+    <row r="4" spans="2:11" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="C4" s="14">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="15">
+        <v>42864</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -799,8 +884,8 @@
       <c r="J5" s="2"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+    <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
@@ -813,8 +898,8 @@
       <c r="J6" s="2"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -827,8 +912,8 @@
       <c r="J7" s="2"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+    <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
@@ -841,8 +926,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
@@ -855,8 +940,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
       <c r="C10" s="3"/>
@@ -869,8 +954,8 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
@@ -883,8 +968,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
       <c r="C12" s="3"/>
@@ -897,8 +982,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
         <v>10</v>
       </c>
       <c r="C13" s="3"/>
@@ -911,8 +996,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+    <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
         <v>11</v>
       </c>
       <c r="C14" s="3"/>
@@ -925,8 +1010,8 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+    <row r="15" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
         <v>12</v>
       </c>
       <c r="C15" s="3"/>
@@ -939,8 +1024,8 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+    <row r="16" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
         <v>13</v>
       </c>
       <c r="C16" s="3"/>
@@ -953,8 +1038,8 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+    <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
@@ -967,8 +1052,8 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+    <row r="18" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
         <v>15</v>
       </c>
       <c r="C18" s="3"/>
@@ -981,8 +1066,8 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
@@ -995,8 +1080,8 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+    <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
@@ -1009,8 +1094,8 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17">
+    <row r="21" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="13">
         <v>18</v>
       </c>
       <c r="C21" s="5"/>
@@ -1023,8 +1108,8 @@
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1042,7 +1127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,7 +1139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.DOCUMENTACION/CODIGO/TablaServicios.xlsx
+++ b/1.DOCUMENTACION/CODIGO/TablaServicios.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Desktop\Pacto-de-Honor\1.DOCUMENTACION\CODIGO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clgarzonb/Desktop/Pacto-de-Honor/1.DOCUMENTACION/CODIGO/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="96" windowWidth="20112" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,7 +31,7 @@
     <author>Juan Nicolas Rubiano Obando</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,22 +105,22 @@
     <t>Nuevo</t>
   </si>
   <si>
+    <t xml:space="preserve">El servicio nos brindara el desbloueo del personaje personaje, cumpliendo si el codigo aun es valido por la fecha y si no esta desbloqueado el personaje. </t>
+  </si>
+  <si>
+    <t>id_jugador= sera el id de cada usuario en el jugo. Id_personaje= sera la informacion de el personaje que se desbloqueara. codigoAlfa = al codigo alfanumericos que se ha regalado.  Estado= Nos dira si esta desbloqueado o no este personaje.</t>
+  </si>
+  <si>
     <t>var desbloqueoAlfaNumerico=  {"id_jugador":{
-                 "id_personaje": "codigoAlfa",
+  "id_personaje": "id",  "codigoAlfa":"codigo",
   "estado":"0" }
 };</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El servicio nos brindara el desbloueo del personaje personaje, cumpliendo si el codigo aun es valido por la fecha y si no esta desbloqueado el personaje. </t>
-  </si>
-  <si>
-    <t>id_jugador= sera el id de cada usuario en el jugo. Id_personaje= sera la informacion de el personaje que se desbloqueara. codigoAlfa = al codigo alfanumericos que se ha regalado.  Estado= Nos dira si esta desbloqueado o no este personaje.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,208 +177,208 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,17 +433,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,9 +508,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -533,31 +538,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -585,23 +573,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,35 +751,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="45.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.44140625" style="1"/>
+    <col min="10" max="10" width="33.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="16" t="s">
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
@@ -840,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -860,17 +831,17 @@
       <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -884,7 +855,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
         <v>3</v>
       </c>
@@ -898,7 +869,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -912,7 +883,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <v>5</v>
       </c>
@@ -926,7 +897,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -940,7 +911,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <v>7</v>
       </c>
@@ -954,7 +925,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -968,7 +939,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <v>9</v>
       </c>
@@ -982,7 +953,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -996,7 +967,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <v>11</v>
       </c>
@@ -1010,7 +981,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -1024,7 +995,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <v>13</v>
       </c>
@@ -1038,7 +1009,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <v>14</v>
       </c>
@@ -1052,7 +1023,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>15</v>
       </c>
@@ -1066,7 +1037,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>16</v>
       </c>
@@ -1080,7 +1051,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <v>17</v>
       </c>
@@ -1094,7 +1065,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>18</v>
       </c>
@@ -1108,7 +1079,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
     </row>
   </sheetData>
@@ -1127,7 +1098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1139,7 +1110,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.DOCUMENTACION/CODIGO/TablaServicios.xlsx
+++ b/1.DOCUMENTACION/CODIGO/TablaServicios.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clgarzonb/Desktop/Pacto-de-Honor/1.DOCUMENTACION/CODIGO/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Fecha solicitud</t>
   </si>
@@ -84,6 +94,27 @@
   </si>
   <si>
     <t>No. Servicio</t>
+  </si>
+  <si>
+    <t>Juan Camilo Lancheros</t>
+  </si>
+  <si>
+    <t>Cristian Garzon</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio nos brindara el desbloueo del personaje personaje, cumpliendo si el codigo aun es valido por la fecha y si no esta desbloqueado el personaje. </t>
+  </si>
+  <si>
+    <t>id_jugador= sera el id de cada usuario en el jugo. Id_personaje= sera la informacion de el personaje que se desbloqueara. codigoAlfa = al codigo alfanumericos que se ha regalado.  Estado= Nos dira si esta desbloqueado o no este personaje.</t>
+  </si>
+  <si>
+    <t>var desbloqueoAlfaNumerico=  {"id_jugador":{
+  "id_personaje": "id",  "codigoAlfa":"codigo",
+  "estado":"0" }
+};</t>
   </si>
 </sst>
 </file>
@@ -146,208 +177,208 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,34 +409,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,6 +454,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,12 +505,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -500,12 +540,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -711,82 +751,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="34.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="45.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="13" t="s">
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+    <row r="4" spans="2:11" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="C4" s="14">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="15">
+        <v>42864</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -799,8 +855,8 @@
       <c r="J5" s="2"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+    <row r="6" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
@@ -813,8 +869,8 @@
       <c r="J6" s="2"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -827,8 +883,8 @@
       <c r="J7" s="2"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+    <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
@@ -841,8 +897,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+    <row r="9" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
@@ -855,8 +911,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+    <row r="10" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
       <c r="C10" s="3"/>
@@ -869,8 +925,8 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+    <row r="11" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
@@ -883,8 +939,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+    <row r="12" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
       <c r="C12" s="3"/>
@@ -897,8 +953,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+    <row r="13" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B13" s="12">
         <v>10</v>
       </c>
       <c r="C13" s="3"/>
@@ -911,8 +967,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+    <row r="14" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B14" s="12">
         <v>11</v>
       </c>
       <c r="C14" s="3"/>
@@ -925,8 +981,8 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+    <row r="15" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B15" s="12">
         <v>12</v>
       </c>
       <c r="C15" s="3"/>
@@ -939,8 +995,8 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+    <row r="16" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B16" s="12">
         <v>13</v>
       </c>
       <c r="C16" s="3"/>
@@ -953,8 +1009,8 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+    <row r="17" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B17" s="12">
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
@@ -967,8 +1023,8 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+    <row r="18" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B18" s="12">
         <v>15</v>
       </c>
       <c r="C18" s="3"/>
@@ -981,8 +1037,8 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+    <row r="19" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B19" s="12">
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
@@ -995,8 +1051,8 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+    <row r="20" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="B20" s="12">
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
@@ -1009,8 +1065,8 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17">
+    <row r="21" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
         <v>18</v>
       </c>
       <c r="C21" s="5"/>
@@ -1023,8 +1079,8 @@
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1042,7 +1098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,7 +1110,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
